--- a/小五班能力檢測/input_files/學生劃卡狀況.xlsx
+++ b/小五班能力檢測/input_files/學生劃卡狀況.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f56f54a8d121711/煜婷國文/桌面/自動改考卷-初等第4回0720/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\0917小五能力檢定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{4FF307A6-9B40-401C-BCB7-1AF0B2CF74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7564725-2A55-4465-85FE-23CF2E672983}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDCE6D-7DE1-4C20-83B6-B592E084B2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>學生</t>
   </si>
@@ -43,62 +43,86 @@
     <t>劃卡狀況6</t>
   </si>
   <si>
-    <t>邱琦恩</t>
-  </si>
-  <si>
-    <t>宣馨詒</t>
-  </si>
-  <si>
-    <t>宣馨雅</t>
-  </si>
-  <si>
-    <t>黃士傑</t>
-  </si>
-  <si>
-    <t>游立安</t>
-  </si>
-  <si>
-    <t>李奕儒</t>
-  </si>
-  <si>
-    <t>黃瀚毅</t>
-  </si>
-  <si>
-    <t>劉書宇</t>
-  </si>
-  <si>
-    <t>蔡孜鵬</t>
-  </si>
-  <si>
-    <t>楊少菲</t>
-  </si>
-  <si>
-    <t>何予樂</t>
-  </si>
-  <si>
-    <t>凸出格外</t>
-  </si>
-  <si>
-    <t>凸出格外</t>
+    <t>正確標準</t>
+  </si>
+  <si>
+    <t>洪歆童</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>翁晨洧</t>
+    <t>孫鴻民</t>
+  </si>
+  <si>
+    <t>陳昱霖</t>
+  </si>
+  <si>
+    <t>黃子瑜</t>
+  </si>
+  <si>
+    <t>張善沅</t>
+  </si>
+  <si>
+    <t>林知樂</t>
+  </si>
+  <si>
+    <t>黃韻璇</t>
+  </si>
+  <si>
+    <t>陳仕正</t>
+  </si>
+  <si>
+    <t>何璟威</t>
+  </si>
+  <si>
+    <t>蔡安晴</t>
+  </si>
+  <si>
+    <t>李芯慈</t>
+  </si>
+  <si>
+    <t>黃雋升</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王苡安</t>
-  </si>
-  <si>
-    <t>正確標準</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未塗滿格</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未塗滿格</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凸出格外</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未塗滿格</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顏色太淺</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,74 +158,40 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="細明體"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -232,26 +222,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -475,12 +456,12 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,141 +484,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="12.5">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="12.5">
+    <row r="18" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="12.5">
+    <row r="19" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
